--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T15:00:21+00:00</t>
+    <t>2024-05-13T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T08:42:46+00:00</t>
+    <t>2024-05-13T09:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T09:06:15+00:00</t>
+    <t>2024-05-15T15:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-ballot-1</t>
+    <t>0.4.0-qa-preview-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:09:55+00:00</t>
+    <t>2024-05-16T12:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-qa-preview-1</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T12:22:44+00:00</t>
+    <t>2024-05-16T15:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T15:07:59+00:00</t>
+    <t>2024-05-16T17:06:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T17:06:23+00:00</t>
+    <t>2024-05-17T07:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:43:07+00:00</t>
+    <t>2024-05-17T08:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T08:22:30+00:00</t>
+    <t>2024-05-17T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:21:28+00:00</t>
+    <t>2024-05-17T14:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="138">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T14:16:22+00:00</t>
+    <t>2024-05-22T08:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,36 +358,37 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:exerciseTitle.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.extension:exerciseTitle.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -437,10 +438,6 @@
   </si>
   <si>
     <t>prenomExercice</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -1741,10 +1738,10 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1756,7 +1753,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -1767,13 +1764,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -1795,7 +1792,7 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>113</v>
@@ -1850,7 +1847,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -1862,7 +1859,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>123</v>
@@ -2384,7 +2381,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2396,7 +2393,7 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>130</v>
@@ -2918,7 +2915,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -2930,7 +2927,7 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>137</v>
@@ -3049,10 +3046,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3075,7 +3072,7 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>113</v>
@@ -3132,7 +3129,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3144,7 +3141,7 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:14:33+00:00</t>
+    <t>2024-05-23T14:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:06+00:00</t>
+    <t>2024-07-02T15:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:46:36+00:00</t>
+    <t>2024-07-09T07:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:30:06+00:00</t>
+    <t>2024-07-09T09:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:01:38+00:00</t>
+    <t>2024-07-09T09:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:29:20+00:00</t>
+    <t>2024-07-09T14:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T14:18:56+00:00</t>
+    <t>2024-09-13T14:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T14:28:16+00:00</t>
+    <t>2024-10-07T14:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T14:01:40+00:00</t>
+    <t>2024-10-08T07:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T07:48:52+00:00</t>
+    <t>2024-10-23T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:49:13+00:00</t>
+    <t>2024-12-02T10:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T10:17:54+00:00</t>
+    <t>2024-12-04T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T15:03:14+00:00</t>
+    <t>2024-12-05T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-2</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:03:52+00:00</t>
+    <t>2024-12-09T11:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:05:44+00:00</t>
+    <t>2024-12-09T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:19:41+00:00</t>
+    <t>2024-12-09T12:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T12:55:38+00:00</t>
+    <t>2024-12-09T13:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:16:30+00:00</t>
+    <t>2024-12-09T13:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:44:46+00:00</t>
+    <t>2024-12-09T13:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:53:32+00:00</t>
+    <t>2024-12-09T14:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:43:44+00:00</t>
+    <t>2024-12-10T08:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:40:22+00:00</t>
+    <t>2024-12-10T08:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:43:17+00:00</t>
+    <t>2024-12-10T08:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:45:21+00:00</t>
+    <t>2024-12-16T09:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:17:42+00:00</t>
+    <t>2024-12-16T09:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:21:00+00:00</t>
+    <t>2024-12-16T09:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:28:29+00:00</t>
+    <t>2024-12-16T09:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:31:22+00:00</t>
+    <t>2024-12-16T09:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:34:54+00:00</t>
+    <t>2024-12-16T09:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:49:25+00:00</t>
+    <t>2024-12-16T09:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:53:18+00:00</t>
+    <t>2024-12-16T10:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:03:27+00:00</t>
+    <t>2024-12-16T10:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:04:41+00:00</t>
+    <t>2024-12-16T10:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:07:45+00:00</t>
+    <t>2024-12-16T10:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:11:58+00:00</t>
+    <t>2024-12-16T10:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:18:50+00:00</t>
+    <t>2024-12-16T10:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:19:28+00:00</t>
+    <t>2024-12-16T10:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:26:01+00:00</t>
+    <t>2025-01-22T15:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:00:55+00:00</t>
+    <t>2025-01-28T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:58:19+00:00</t>
+    <t>2025-03-03T10:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:17:50+00:00</t>
+    <t>2025-03-03T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:20:03+00:00</t>
+    <t>2025-03-03T17:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T17:10:11+00:00</t>
+    <t>2025-03-07T13:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:29:09+00:00</t>
+    <t>2025-03-10T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10T14:14:07+00:00</t>
+    <t>2025-03-13T17:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T17:00:51+00:00</t>
+    <t>2025-03-13T21:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T21:07:49+00:00</t>
+    <t>2025-03-14T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:18:51+00:00</t>
+    <t>2025-03-14T08:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:31:00+00:00</t>
+    <t>2025-03-14T08:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:36:00+00:00</t>
+    <t>2025-03-14T08:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:58:55+00:00</t>
+    <t>2025-03-14T09:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T09:23:47+00:00</t>
+    <t>2025-03-17T13:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:12:35+00:00</t>
+    <t>2025-03-18T09:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T09:01:13+00:00</t>
+    <t>2025-03-27T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T16:26:35+00:00</t>
+    <t>2025-06-04T09:55:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -757,43 +757,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="90.82421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.8671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="82.18359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="70.45703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:55:05+00:00</t>
+    <t>2025-06-10T08:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T08:02:33+00:00</t>
+    <t>2025-07-17T08:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T08:38:04+00:00</t>
+    <t>2025-07-17T09:53:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:53:53+00:00</t>
+    <t>2025-07-17T13:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:53:21+00:00</t>
+    <t>2025-07-17T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:29:52+00:00</t>
+    <t>2025-07-17T15:27:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:27:59+00:00</t>
+    <t>2025-07-17T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:32:30+00:00</t>
+    <t>2025-07-25T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:27:54+00:00</t>
+    <t>2025-07-28T16:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:37:17+00:00</t>
+    <t>2025-07-29T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T14:46:28+00:00</t>
+    <t>2025-07-29T15:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T15:03:53+00:00</t>
+    <t>2025-07-30T08:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -757,43 +757,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.8671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="90.82421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="70.45703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="82.18359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:54:50+00:00</t>
+    <t>2025-07-30T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T09:38:37+00:00</t>
+    <t>2025-10-16T15:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:18:57+00:00</t>
+    <t>2025-10-17T13:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:18:06+00:00</t>
+    <t>2025-10-17T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:49:18+00:00</t>
+    <t>2026-01-19T14:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:25:36+00:00</t>
+    <t>2026-01-20T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:13+00:00</t>
+    <t>2026-01-21T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
